--- a/doc/ue_trace.xlsx
+++ b/doc/ue_trace.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFBDF41-27A7-411B-AF0E-1FC891F93D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3BD4F8-737F-48B2-91B1-53474C89A400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
+    <sheet name="原理" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -471,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,4 +557,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778BCC0C-24A7-4D69-87B0-577481893A9B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>